--- a/Results/case2/0.8.xlsx
+++ b/Results/case2/0.8.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_D9C012C381684A4EE72564B74F5DCE3A6745369C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6D9BB745-B196-4EFE-A85A-35EE67382D56}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_D9C012C381684A4EE72564B74F5DCE3A6745369C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1ABC1F0F-48DE-4614-A933-7EF10400D81B}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="4845" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -332,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.96699999999999997</c:v>
+                  <c:v>0.96630000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97040000000000004</c:v>
+                  <c:v>0.97240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96579999999999999</c:v>
+                  <c:v>0.97840000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97709999999999997</c:v>
+                  <c:v>0.97589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98780000000000001</c:v>
+                  <c:v>0.98260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9879</c:v>
+                  <c:v>0.98219999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98740000000000006</c:v>
+                  <c:v>0.98550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98740000000000006</c:v>
+                  <c:v>0.98550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98009999999999997</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,78 +1117,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Accuracy(gamma=0.9)</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Accuracy(gamma=0.8)</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Accuracy(gamma=0.7)</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Accuracy(gamma=0.6)</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Accuracy(gamma=0.5)</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Accuracy(gamma=0.4)</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>Accuracy(gamma=0.3)</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>Accuracy(gamma=0.2)</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>Accuracy(gamma=0.1)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.88009999999999999</v>
-          </cell>
-          <cell r="D22">
-            <v>0.88580000000000003</v>
-          </cell>
-          <cell r="F22">
-            <v>0.89890000000000003</v>
-          </cell>
-          <cell r="H22">
-            <v>0.90620000000000001</v>
-          </cell>
-          <cell r="J22">
-            <v>0.90349999999999997</v>
-          </cell>
-          <cell r="L22">
-            <v>0.90349999999999997</v>
-          </cell>
-          <cell r="N22">
-            <v>0.92120000000000002</v>
-          </cell>
-          <cell r="P22">
-            <v>0.92090000000000005</v>
-          </cell>
-          <cell r="R22">
-            <v>0.92159999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1759,7 +1684,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1828,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.95250000000000001</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="C2">
-        <v>0.43359999999999999</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="D2">
-        <v>0.95760000000000001</v>
+        <v>0.96579999999999999</v>
       </c>
       <c r="E2">
-        <v>0.43149999999999999</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="F2">
-        <v>0.96579999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="G2">
-        <v>0.42670000000000002</v>
+        <v>0.4279</v>
       </c>
       <c r="H2">
-        <v>0.96809999999999996</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="I2">
-        <v>0.42430000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="J2">
-        <v>0.96750000000000003</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="K2">
-        <v>0.4244</v>
+        <v>0.4264</v>
       </c>
       <c r="L2">
-        <v>0.96750000000000003</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="M2">
-        <v>0.4244</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="N2">
-        <v>0.96850000000000003</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="O2">
-        <v>0.42430000000000001</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="P2">
-        <v>0.96889999999999998</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="Q2">
-        <v>0.42430000000000001</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="R2">
-        <v>0.96199999999999997</v>
+        <v>0.96479999999999999</v>
       </c>
       <c r="S2">
-        <v>0.41070000000000001</v>
+        <v>0.41849999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1887,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.83299999999999996</v>
+        <v>0.89070000000000005</v>
       </c>
       <c r="C3">
-        <v>0.5776</v>
+        <v>0.57179999999999997</v>
       </c>
       <c r="D3">
-        <v>0.83579999999999999</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="E3">
-        <v>0.58150000000000002</v>
+        <v>0.5746</v>
       </c>
       <c r="F3">
-        <v>0.86750000000000005</v>
+        <v>0.88390000000000002</v>
       </c>
       <c r="G3">
-        <v>0.59030000000000005</v>
+        <v>0.57550000000000001</v>
       </c>
       <c r="H3">
-        <v>0.8397</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="I3">
-        <v>0.59130000000000005</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="J3">
-        <v>0.95450000000000002</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="K3">
-        <v>0.46229999999999999</v>
+        <v>0.46179999999999999</v>
       </c>
       <c r="L3">
-        <v>0.96789999999999998</v>
+        <v>0.97289999999999999</v>
       </c>
       <c r="M3">
-        <v>0.4481</v>
+        <v>0.4909</v>
       </c>
       <c r="N3">
-        <v>0.97499999999999998</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="O3">
-        <v>0.43159999999999998</v>
+        <v>0.42949999999999999</v>
       </c>
       <c r="P3">
-        <v>0.97529999999999994</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="Q3">
-        <v>0.43059999999999998</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="R3">
-        <v>0.97940000000000005</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="S3">
-        <v>0.4042</v>
+        <v>0.45650000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1946,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.96699999999999997</v>
+        <v>0.95050000000000001</v>
       </c>
       <c r="C4">
-        <v>0.39660000000000001</v>
+        <v>0.41049999999999998</v>
       </c>
       <c r="D4">
-        <v>0.95920000000000005</v>
+        <v>0.97170000000000001</v>
       </c>
       <c r="E4">
-        <v>0.44230000000000003</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="F4">
-        <v>0.94710000000000005</v>
+        <v>0.94730000000000003</v>
       </c>
       <c r="G4">
-        <v>0.4254</v>
+        <v>0.42549999999999999</v>
       </c>
       <c r="H4">
-        <v>0.97640000000000005</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="I4">
-        <v>0.38590000000000002</v>
+        <v>0.4002</v>
       </c>
       <c r="J4">
-        <v>0.96960000000000002</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="K4">
         <v>0.40820000000000001</v>
       </c>
       <c r="L4">
-        <v>0.97030000000000005</v>
+        <v>0.94950000000000001</v>
       </c>
       <c r="M4">
-        <v>0.40770000000000001</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="N4">
-        <v>0.98650000000000004</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="O4">
-        <v>0.37459999999999999</v>
+        <v>0.4622</v>
       </c>
       <c r="P4">
-        <v>0.98619999999999997</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="Q4">
-        <v>0.376</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="R4">
-        <v>0.98009999999999997</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="S4">
-        <v>0.4022</v>
+        <v>0.46229999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2005,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.95240000000000002</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="C5">
-        <v>0.45590000000000003</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="D5">
-        <v>0.97040000000000004</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="E5">
-        <v>0.40060000000000001</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="F5">
-        <v>0.94820000000000004</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="G5">
-        <v>0.42330000000000001</v>
+        <v>0.4672</v>
       </c>
       <c r="H5">
-        <v>0.97709999999999997</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I5">
-        <v>0.38540000000000002</v>
+        <v>0.3997</v>
       </c>
       <c r="J5">
-        <v>0.98780000000000001</v>
+        <v>0.97719999999999996</v>
       </c>
       <c r="K5">
-        <v>0.3654</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="L5">
-        <v>0.9879</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="M5">
-        <v>0.36530000000000001</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="N5">
-        <v>0.98740000000000006</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="O5">
-        <v>0.36859999999999998</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="P5">
-        <v>0.98650000000000004</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.37469999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="R5">
-        <v>0.98009999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="S5">
-        <v>0.4022</v>
+        <v>0.45569999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2064,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.84230000000000005</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="C6">
-        <v>0.56969999999999998</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="D6">
-        <v>0.94689999999999996</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="E6">
-        <v>0.44019999999999998</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="F6">
-        <v>0.9476</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="G6">
-        <v>0.42459999999999998</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="H6">
-        <v>0.97689999999999999</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I6">
-        <v>0.38390000000000002</v>
+        <v>0.3997</v>
       </c>
       <c r="J6">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.45369999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.9819</v>
+      </c>
+      <c r="M6">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="O6">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="Q6">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="R6">
         <v>0.98560000000000003</v>
       </c>
-      <c r="K6">
-        <v>0.37230000000000002</v>
-      </c>
-      <c r="L6">
-        <v>0.9869</v>
-      </c>
-      <c r="M6">
-        <v>0.37130000000000002</v>
-      </c>
-      <c r="N6">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="O6">
-        <v>0.36859999999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="Q6">
-        <v>0.37380000000000002</v>
-      </c>
-      <c r="R6">
-        <v>0.98009999999999997</v>
-      </c>
       <c r="S6">
-        <v>0.4022</v>
+        <v>0.45629999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2123,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.83809999999999996</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C7">
-        <v>0.55359999999999998</v>
+        <v>0.66710000000000003</v>
       </c>
       <c r="D7">
-        <v>0.94799999999999995</v>
+        <v>0.9536</v>
       </c>
       <c r="E7">
-        <v>0.42370000000000002</v>
+        <v>0.4763</v>
       </c>
       <c r="F7">
-        <v>0.94769999999999999</v>
+        <v>0.94879999999999998</v>
       </c>
       <c r="G7">
-        <v>0.42459999999999998</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="H7">
-        <v>0.97260000000000002</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I7">
-        <v>0.39860000000000001</v>
+        <v>0.3997</v>
       </c>
       <c r="J7">
-        <v>0.98609999999999998</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="K7">
-        <v>0.37190000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="L7">
-        <v>0.98670000000000002</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="M7">
-        <v>0.37190000000000001</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="N7">
-        <v>0.98740000000000006</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="O7">
-        <v>0.36859999999999998</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="P7">
-        <v>0.98670000000000002</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.37380000000000002</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="R7">
-        <v>0.98009999999999997</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S7">
-        <v>0.4022</v>
+        <v>0.46179999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2182,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.83809999999999996</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="C8">
-        <v>0.55359999999999998</v>
+        <v>0.66820000000000002</v>
       </c>
       <c r="D8">
-        <v>0.94789999999999996</v>
+        <v>0.95309999999999995</v>
       </c>
       <c r="E8">
-        <v>0.42359999999999998</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="F8">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G8">
-        <v>0.42459999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="H8">
-        <v>0.97260000000000002</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I8">
-        <v>0.39860000000000001</v>
+        <v>0.3997</v>
       </c>
       <c r="J8">
-        <v>0.98599999999999999</v>
+        <v>0.9819</v>
       </c>
       <c r="K8">
-        <v>0.37180000000000002</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="L8">
-        <v>0.98760000000000003</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="M8">
-        <v>0.36480000000000001</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="N8">
-        <v>0.98740000000000006</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="O8">
-        <v>0.36859999999999998</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="P8">
-        <v>0.98670000000000002</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="Q8">
-        <v>0.37380000000000002</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="R8">
-        <v>0.98009999999999997</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S8">
-        <v>0.4022</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2241,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.83809999999999996</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="C9">
-        <v>0.55359999999999998</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="D9">
-        <v>0.97</v>
+        <v>0.9536</v>
       </c>
       <c r="E9">
-        <v>0.40939999999999999</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="F9">
-        <v>0.94769999999999999</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="G9">
-        <v>0.42459999999999998</v>
+        <v>0.4274</v>
       </c>
       <c r="H9">
-        <v>0.97260000000000002</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I9">
-        <v>0.39860000000000001</v>
+        <v>0.3997</v>
       </c>
       <c r="J9">
-        <v>0.98599999999999999</v>
+        <v>0.9819</v>
       </c>
       <c r="K9">
-        <v>0.37180000000000002</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="L9">
-        <v>0.98760000000000003</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="M9">
-        <v>0.36480000000000001</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="N9">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O9">
-        <v>0.36859999999999998</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="P9">
-        <v>0.98670000000000002</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q9">
-        <v>0.37380000000000002</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="R9">
-        <v>0.98009999999999997</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S9">
-        <v>0.4022</v>
+        <v>0.46179999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2300,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.83809999999999996</v>
+        <v>0.8901</v>
       </c>
       <c r="C10">
-        <v>0.55359999999999998</v>
+        <v>0.67379999999999995</v>
       </c>
       <c r="D10">
-        <v>0.94789999999999996</v>
+        <v>0.95350000000000001</v>
       </c>
       <c r="E10">
-        <v>0.42359999999999998</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="F10">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G10">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H10">
-        <v>0.97260000000000002</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I10">
-        <v>0.39860000000000001</v>
+        <v>0.3997</v>
       </c>
       <c r="J10">
-        <v>0.9859</v>
+        <v>0.9819</v>
       </c>
       <c r="K10">
-        <v>0.37190000000000001</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="L10">
-        <v>0.98760000000000003</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="M10">
-        <v>0.36480000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="N10">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O10">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P10">
-        <v>0.98650000000000004</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q10">
-        <v>0.37390000000000001</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="R10">
-        <v>0.98009999999999997</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="S10">
-        <v>0.4022</v>
+        <v>0.4632</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2359,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C11">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D11">
-        <v>0.97</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="E11">
-        <v>0.40939999999999999</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="F11">
-        <v>0.94769999999999999</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="G11">
-        <v>0.42459999999999998</v>
+        <v>0.42320000000000002</v>
       </c>
       <c r="H11">
-        <v>0.97260000000000002</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I11">
-        <v>0.39860000000000001</v>
+        <v>0.3997</v>
       </c>
       <c r="J11">
-        <v>0.9859</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K11">
-        <v>0.37180000000000002</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="L11">
-        <v>0.98760000000000003</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="M11">
-        <v>0.36480000000000001</v>
+        <v>0.4531</v>
       </c>
       <c r="N11">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O11">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P11">
-        <v>0.98740000000000006</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q11">
-        <v>0.36859999999999998</v>
+        <v>0.46239999999999998</v>
       </c>
       <c r="R11">
-        <v>0.98009999999999997</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="S11">
-        <v>0.4022</v>
+        <v>0.4632</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2418,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C12">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D12">
-        <v>0.97</v>
+        <v>0.9536</v>
       </c>
       <c r="E12">
-        <v>0.40939999999999999</v>
+        <v>0.47520000000000001</v>
       </c>
       <c r="F12">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G12">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H12">
-        <v>0.97109999999999996</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I12">
-        <v>0.40189999999999998</v>
+        <v>0.3997</v>
       </c>
       <c r="J12">
-        <v>0.98670000000000002</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="K12">
-        <v>0.3654</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="L12">
-        <v>0.98760000000000003</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="M12">
-        <v>0.36480000000000001</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="N12">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O12">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P12">
-        <v>0.98740000000000006</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q12">
-        <v>0.36859999999999998</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="R12">
-        <v>0.98009999999999997</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="S12">
-        <v>0.4022</v>
+        <v>0.4632</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2477,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C13">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D13">
-        <v>0.94789999999999996</v>
+        <v>0.95340000000000003</v>
       </c>
       <c r="E13">
-        <v>0.42359999999999998</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="F13">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G13">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H13">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I13">
-        <v>0.40429999999999999</v>
+        <v>0.3997</v>
       </c>
       <c r="J13">
-        <v>0.98670000000000002</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="K13">
-        <v>0.3654</v>
+        <v>0.4536</v>
       </c>
       <c r="L13">
-        <v>0.98760000000000003</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="M13">
-        <v>0.36480000000000001</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="N13">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O13">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P13">
-        <v>0.98740000000000006</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q13">
-        <v>0.36859999999999998</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="R13">
-        <v>0.98009999999999997</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="S13">
-        <v>0.4022</v>
+        <v>0.4632</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2536,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C14">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D14">
-        <v>0.97</v>
+        <v>0.95350000000000001</v>
       </c>
       <c r="E14">
-        <v>0.40939999999999999</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="F14">
-        <v>0.94840000000000002</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G14">
-        <v>0.42080000000000001</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H14">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I14">
-        <v>0.40429999999999999</v>
+        <v>0.3997</v>
       </c>
       <c r="J14">
-        <v>0.98670000000000002</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="K14">
-        <v>0.3654</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="L14">
-        <v>0.98709999999999998</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="M14">
-        <v>0.37080000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="N14">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O14">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P14">
-        <v>0.98740000000000006</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q14">
-        <v>0.36859999999999998</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="R14">
-        <v>0.98009999999999997</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="S14">
-        <v>0.4022</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2595,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C15">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D15">
-        <v>0.94789999999999996</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="E15">
-        <v>0.42359999999999998</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="F15">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G15">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H15">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I15">
-        <v>0.40429999999999999</v>
+        <v>0.3997</v>
       </c>
       <c r="J15">
-        <v>0.98670000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K15">
-        <v>0.3654</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="L15">
-        <v>0.98760000000000003</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="M15">
-        <v>0.36480000000000001</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="N15">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O15">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P15">
-        <v>0.98740000000000006</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q15">
-        <v>0.36859999999999998</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="R15">
-        <v>0.98009999999999997</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="S15">
-        <v>0.4022</v>
+        <v>0.4632</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2654,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C16">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D16">
-        <v>0.97</v>
+        <v>0.9536</v>
       </c>
       <c r="E16">
-        <v>0.40939999999999999</v>
+        <v>0.4753</v>
       </c>
       <c r="F16">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G16">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H16">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I16">
-        <v>0.40699999999999997</v>
+        <v>0.3997</v>
       </c>
       <c r="J16">
-        <v>0.98670000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K16">
-        <v>0.3654</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="L16">
-        <v>0.98760000000000003</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="M16">
-        <v>0.36480000000000001</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="N16">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O16">
-        <v>0.36859999999999998</v>
+        <v>0.4622</v>
       </c>
       <c r="P16">
-        <v>0.98740000000000006</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="Q16">
-        <v>0.36859999999999998</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="R16">
-        <v>0.98009999999999997</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S16">
-        <v>0.4022</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2713,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C17">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D17">
-        <v>0.97</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="E17">
-        <v>0.40939999999999999</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="F17">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G17">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H17">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I17">
-        <v>0.40699999999999997</v>
+        <v>0.3997</v>
       </c>
       <c r="J17">
-        <v>0.98670000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K17">
-        <v>0.3654</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="L17">
-        <v>0.98760000000000003</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="M17">
-        <v>0.36480000000000001</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="N17">
-        <v>0.98729999999999996</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O17">
-        <v>0.36849999999999999</v>
+        <v>0.4622</v>
       </c>
       <c r="P17">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="Q17">
-        <v>0.36859999999999998</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="R17">
-        <v>0.98009999999999997</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S17">
-        <v>0.4022</v>
+        <v>0.46339999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2772,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.83809999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="C18">
-        <v>0.55359999999999998</v>
+        <v>0.67320000000000002</v>
       </c>
       <c r="D18">
-        <v>0.94789999999999996</v>
+        <v>0.9536</v>
       </c>
       <c r="E18">
-        <v>0.42359999999999998</v>
+        <v>0.47520000000000001</v>
       </c>
       <c r="F18">
-        <v>0.94769999999999999</v>
+        <v>0.9486</v>
       </c>
       <c r="G18">
-        <v>0.42459999999999998</v>
+        <v>0.4234</v>
       </c>
       <c r="H18">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I18">
-        <v>0.40699999999999997</v>
+        <v>0.3997</v>
       </c>
       <c r="J18">
-        <v>0.98670000000000002</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="K18">
-        <v>0.3654</v>
+        <v>0.4546</v>
       </c>
       <c r="L18">
-        <v>0.98760000000000003</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="M18">
-        <v>0.36480000000000001</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="N18">
-        <v>0.98729999999999996</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O18">
-        <v>0.36849999999999999</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="P18">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="Q18">
-        <v>0.36859999999999998</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="R18">
-        <v>0.98009999999999997</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S18">
-        <v>0.4022</v>
+        <v>0.46360000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2831,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.83809999999999996</v>
+        <v>0.88859999999999995</v>
       </c>
       <c r="C19">
-        <v>0.55359999999999998</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="D19">
-        <v>0.97</v>
+        <v>0.9536</v>
       </c>
       <c r="E19">
-        <v>0.40939999999999999</v>
+        <v>0.47510000000000002</v>
       </c>
       <c r="F19">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G19">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H19">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I19">
-        <v>0.40699999999999997</v>
+        <v>0.3997</v>
       </c>
       <c r="J19">
-        <v>0.98670000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K19">
-        <v>0.36549999999999999</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="L19">
-        <v>0.98760000000000003</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="M19">
-        <v>0.36480000000000001</v>
+        <v>0.45329999999999998</v>
       </c>
       <c r="N19">
-        <v>0.98729999999999996</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O19">
-        <v>0.36849999999999999</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="P19">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="Q19">
-        <v>0.36859999999999998</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="R19">
-        <v>0.98009999999999997</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="S19">
-        <v>0.4022</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2890,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.83809999999999996</v>
+        <v>0.88859999999999995</v>
       </c>
       <c r="C20">
-        <v>0.55359999999999998</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="D20">
-        <v>0.94789999999999996</v>
+        <v>0.9536</v>
       </c>
       <c r="E20">
-        <v>0.42359999999999998</v>
+        <v>0.47520000000000001</v>
       </c>
       <c r="F20">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G20">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H20">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I20">
-        <v>0.40699999999999997</v>
+        <v>0.3997</v>
       </c>
       <c r="J20">
-        <v>0.98670000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K20">
-        <v>0.36549999999999999</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="L20">
-        <v>0.98760000000000003</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="M20">
-        <v>0.36480000000000001</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="N20">
-        <v>0.98729999999999996</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O20">
-        <v>0.36849999999999999</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="P20">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="Q20">
-        <v>0.36859999999999998</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="R20">
-        <v>0.98009999999999997</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="S20">
-        <v>0.4022</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2949,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.83809999999999996</v>
+        <v>0.88859999999999995</v>
       </c>
       <c r="C21">
-        <v>0.55359999999999998</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="D21">
-        <v>0.97</v>
+        <v>0.9536</v>
       </c>
       <c r="E21">
-        <v>0.40939999999999999</v>
+        <v>0.47510000000000002</v>
       </c>
       <c r="F21">
-        <v>0.94769999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G21">
-        <v>0.42459999999999998</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H21">
-        <v>0.97199999999999998</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="I21">
-        <v>0.40699999999999997</v>
+        <v>0.3997</v>
       </c>
       <c r="J21">
-        <v>0.98670000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K21">
-        <v>0.36549999999999999</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="L21">
-        <v>0.98760000000000003</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="M21">
-        <v>0.36480000000000001</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="N21">
-        <v>0.98729999999999996</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="O21">
-        <v>0.36849999999999999</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="P21">
-        <v>0.98740000000000006</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="Q21">
-        <v>0.36859999999999998</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="R21">
-        <v>0.98009999999999997</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S21">
-        <v>0.4022</v>
+        <v>0.46350000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3009,44 +2934,45 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.96699999999999997</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.97040000000000004</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.96579999999999999</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.97709999999999997</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.98780000000000001</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.9879</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.98740000000000006</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.98740000000000006</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.98009999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>